--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/inputs_total_outputs.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/inputs_total_outputs.xlsx
@@ -484,40 +484,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.738</v>
+        <v>94.13800000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>163.079</v>
+        <v>141.717</v>
       </c>
       <c r="D2" t="n">
-        <v>178.015</v>
+        <v>155.215</v>
       </c>
       <c r="E2" t="n">
-        <v>194.553</v>
+        <v>171.753</v>
       </c>
       <c r="F2" t="n">
-        <v>218.383</v>
+        <v>196.515</v>
       </c>
       <c r="G2" t="n">
-        <v>229.793</v>
+        <v>207.925</v>
       </c>
       <c r="H2" t="n">
-        <v>248.293</v>
+        <v>228.497</v>
       </c>
       <c r="I2" t="n">
-        <v>250.443</v>
+        <v>228.221</v>
       </c>
       <c r="J2" t="n">
-        <v>251.87</v>
+        <v>229.648</v>
       </c>
       <c r="K2" t="n">
-        <v>254.67</v>
+        <v>232.448</v>
       </c>
       <c r="L2" t="n">
-        <v>255.57</v>
+        <v>233.348</v>
       </c>
       <c r="M2" t="n">
-        <v>267.57</v>
+        <v>245.348</v>
       </c>
     </row>
     <row r="3">
@@ -528,37 +528,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>123.9909233087851</v>
+        <v>126.1156074044061</v>
       </c>
       <c r="D3" t="n">
-        <v>135.9692128792374</v>
+        <v>137.7353779116906</v>
       </c>
       <c r="E3" t="n">
-        <v>151.8501449331331</v>
+        <v>154.2964467444727</v>
       </c>
       <c r="F3" t="n">
-        <v>168.6328777858254</v>
+        <v>171.6612724191683</v>
       </c>
       <c r="G3" t="n">
-        <v>183.8596686955732</v>
+        <v>186.062028196491</v>
       </c>
       <c r="H3" t="n">
-        <v>180.7022275233895</v>
+        <v>183.8227010764905</v>
       </c>
       <c r="I3" t="n">
-        <v>178.7624277650283</v>
+        <v>182.5413985695064</v>
       </c>
       <c r="J3" t="n">
-        <v>183.458059107708</v>
+        <v>187.2403578048327</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0098637461685</v>
+        <v>197.5259744187077</v>
       </c>
       <c r="L3" t="n">
-        <v>196.5948067085529</v>
+        <v>200.7916574428279</v>
       </c>
       <c r="M3" t="n">
-        <v>194.1291532922715</v>
+        <v>198.4956829864949</v>
       </c>
     </row>
   </sheetData>
